--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H2">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I2">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J2">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.3542</v>
+        <v>16.790963</v>
       </c>
       <c r="N2">
-        <v>49.0626</v>
+        <v>50.372889</v>
       </c>
       <c r="O2">
-        <v>0.3510578481048182</v>
+        <v>0.3767143164125142</v>
       </c>
       <c r="P2">
-        <v>0.3510578481048181</v>
+        <v>0.3767143164125141</v>
       </c>
       <c r="Q2">
-        <v>3118.1669031948</v>
+        <v>2945.326881279979</v>
       </c>
       <c r="R2">
-        <v>28063.5021287532</v>
+        <v>26507.94193151981</v>
       </c>
       <c r="S2">
-        <v>0.07027966169604065</v>
+        <v>0.05782965691521007</v>
       </c>
       <c r="T2">
-        <v>0.07027966169604065</v>
+        <v>0.05782965691521009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H3">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I3">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J3">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.433676999999999</v>
       </c>
       <c r="O3">
-        <v>0.0531902233295072</v>
+        <v>0.05559285173193915</v>
       </c>
       <c r="P3">
-        <v>0.05319022332950719</v>
+        <v>0.05559285173193915</v>
       </c>
       <c r="Q3">
-        <v>472.4463357107126</v>
+        <v>434.6506450097136</v>
       </c>
       <c r="R3">
-        <v>4252.017021396414</v>
+        <v>3911.855805087423</v>
       </c>
       <c r="S3">
-        <v>0.01064836157720215</v>
+        <v>0.008534094411946237</v>
       </c>
       <c r="T3">
-        <v>0.01064836157720215</v>
+        <v>0.008534094411946238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H4">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I4">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J4">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.125502333333333</v>
+        <v>7.558934333333333</v>
       </c>
       <c r="N4">
-        <v>21.376507</v>
+        <v>22.676803</v>
       </c>
       <c r="O4">
-        <v>0.1529554191465104</v>
+        <v>0.1695887710662426</v>
       </c>
       <c r="P4">
-        <v>0.1529554191465104</v>
+        <v>0.1695887710662426</v>
       </c>
       <c r="Q4">
-        <v>1358.581009431053</v>
+        <v>1325.9235033629</v>
       </c>
       <c r="R4">
-        <v>12227.22908487947</v>
+        <v>11933.3115302661</v>
       </c>
       <c r="S4">
-        <v>0.0306207514522884</v>
+        <v>0.02603368128089311</v>
       </c>
       <c r="T4">
-        <v>0.03062075145228839</v>
+        <v>0.02603368128089312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H5">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I5">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J5">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.62789</v>
+        <v>17.74434966666666</v>
       </c>
       <c r="N5">
-        <v>61.88367</v>
+        <v>53.23304899999999</v>
       </c>
       <c r="O5">
-        <v>0.4427965094191642</v>
+        <v>0.3981040607893041</v>
       </c>
       <c r="P5">
-        <v>0.4427965094191642</v>
+        <v>0.398104060789304</v>
       </c>
       <c r="Q5">
-        <v>3933.008271926659</v>
+        <v>3112.561802683072</v>
       </c>
       <c r="R5">
-        <v>35397.07444733994</v>
+        <v>28013.05622414765</v>
       </c>
       <c r="S5">
-        <v>0.08864518782350342</v>
+        <v>0.06111321032670106</v>
       </c>
       <c r="T5">
-        <v>0.08864518782350342</v>
+        <v>0.06111321032670107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I6">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J6">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.3542</v>
+        <v>16.790963</v>
       </c>
       <c r="N6">
-        <v>49.0626</v>
+        <v>50.372889</v>
       </c>
       <c r="O6">
-        <v>0.3510578481048182</v>
+        <v>0.3767143164125142</v>
       </c>
       <c r="P6">
-        <v>0.3510578481048181</v>
+        <v>0.3767143164125141</v>
       </c>
       <c r="Q6">
-        <v>8685.885414755801</v>
+        <v>8917.854778674853</v>
       </c>
       <c r="R6">
-        <v>78172.9687328022</v>
+        <v>80260.69300807368</v>
       </c>
       <c r="S6">
-        <v>0.1957692155138225</v>
+        <v>0.1750965183349407</v>
       </c>
       <c r="T6">
-        <v>0.1957692155138225</v>
+        <v>0.1750965183349407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I7">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J7">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.433676999999999</v>
       </c>
       <c r="O7">
-        <v>0.0531902233295072</v>
+        <v>0.05559285173193915</v>
       </c>
       <c r="P7">
-        <v>0.05319022332950719</v>
+        <v>0.05559285173193915</v>
       </c>
       <c r="Q7">
         <v>1316.034344537502</v>
@@ -883,10 +883,10 @@
         <v>11844.30910083752</v>
       </c>
       <c r="S7">
-        <v>0.02966180175272296</v>
+        <v>0.02583951381320469</v>
       </c>
       <c r="T7">
-        <v>0.02966180175272295</v>
+        <v>0.02583951381320469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I8">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J8">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.125502333333333</v>
+        <v>7.558934333333333</v>
       </c>
       <c r="N8">
-        <v>21.376507</v>
+        <v>22.676803</v>
       </c>
       <c r="O8">
-        <v>0.1529554191465104</v>
+        <v>0.1695887710662426</v>
       </c>
       <c r="P8">
-        <v>0.1529554191465104</v>
+        <v>0.1695887710662426</v>
       </c>
       <c r="Q8">
-        <v>3784.428268573725</v>
+        <v>4014.628503809226</v>
       </c>
       <c r="R8">
-        <v>34059.85441716353</v>
+        <v>36131.65653428304</v>
       </c>
       <c r="S8">
-        <v>0.08529637658452131</v>
+        <v>0.07882472756858035</v>
       </c>
       <c r="T8">
-        <v>0.08529637658452129</v>
+        <v>0.07882472756858036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I9">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J9">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.62789</v>
+        <v>17.74434966666666</v>
       </c>
       <c r="N9">
-        <v>61.88367</v>
+        <v>53.23304899999999</v>
       </c>
       <c r="O9">
-        <v>0.4427965094191642</v>
+        <v>0.3981040607893041</v>
       </c>
       <c r="P9">
-        <v>0.4427965094191642</v>
+        <v>0.398104060789304</v>
       </c>
       <c r="Q9">
-        <v>10955.68654462994</v>
+        <v>9424.208335719688</v>
       </c>
       <c r="R9">
-        <v>98601.17890166947</v>
+        <v>84817.87502147719</v>
       </c>
       <c r="S9">
-        <v>0.246927752076251</v>
+        <v>0.1850384547182373</v>
       </c>
       <c r="T9">
-        <v>0.2469277520762509</v>
+        <v>0.1850384547182373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H10">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I10">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J10">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.3542</v>
+        <v>16.790963</v>
       </c>
       <c r="N10">
-        <v>49.0626</v>
+        <v>50.372889</v>
       </c>
       <c r="O10">
-        <v>0.3510578481048182</v>
+        <v>0.3767143164125142</v>
       </c>
       <c r="P10">
-        <v>0.3510578481048181</v>
+        <v>0.3767143164125141</v>
       </c>
       <c r="Q10">
-        <v>2478.6158510428</v>
+        <v>6046.684306757312</v>
       </c>
       <c r="R10">
-        <v>22307.5426593852</v>
+        <v>54420.15876081581</v>
       </c>
       <c r="S10">
-        <v>0.05586496454287117</v>
+        <v>0.1187228762813578</v>
       </c>
       <c r="T10">
-        <v>0.05586496454287115</v>
+        <v>0.1187228762813578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H11">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I11">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J11">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.433676999999999</v>
       </c>
       <c r="O11">
-        <v>0.0531902233295072</v>
+        <v>0.05559285173193915</v>
       </c>
       <c r="P11">
-        <v>0.05319022332950719</v>
+        <v>0.05559285173193915</v>
       </c>
       <c r="Q11">
-        <v>375.5453164677838</v>
+        <v>892.3271813415897</v>
       </c>
       <c r="R11">
-        <v>3379.907848210054</v>
+        <v>8030.944632074307</v>
       </c>
       <c r="S11">
-        <v>0.008464331324229796</v>
+        <v>0.01752028784345831</v>
       </c>
       <c r="T11">
-        <v>0.008464331324229794</v>
+        <v>0.01752028784345831</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H12">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I12">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J12">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.125502333333333</v>
+        <v>7.558934333333333</v>
       </c>
       <c r="N12">
-        <v>21.376507</v>
+        <v>22.676803</v>
       </c>
       <c r="O12">
-        <v>0.1529554191465104</v>
+        <v>0.1695887710662426</v>
       </c>
       <c r="P12">
-        <v>0.1529554191465104</v>
+        <v>0.1695887710662426</v>
       </c>
       <c r="Q12">
-        <v>1079.929500069857</v>
+        <v>2722.088638345264</v>
       </c>
       <c r="R12">
-        <v>9719.365500628715</v>
+        <v>24498.79774510737</v>
       </c>
       <c r="S12">
-        <v>0.02434028782831397</v>
+        <v>0.05344651320327731</v>
       </c>
       <c r="T12">
-        <v>0.02434028782831397</v>
+        <v>0.05344651320327732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H13">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I13">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J13">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.62789</v>
+        <v>17.74434966666666</v>
       </c>
       <c r="N13">
-        <v>61.88367</v>
+        <v>53.23304899999999</v>
       </c>
       <c r="O13">
-        <v>0.4427965094191642</v>
+        <v>0.3981040607893041</v>
       </c>
       <c r="P13">
-        <v>0.4427965094191642</v>
+        <v>0.398104060789304</v>
       </c>
       <c r="Q13">
-        <v>3126.329329931593</v>
+        <v>6390.013524718484</v>
       </c>
       <c r="R13">
-        <v>28136.96396938434</v>
+        <v>57510.12172246636</v>
       </c>
       <c r="S13">
-        <v>0.07046363279428197</v>
+        <v>0.1254639314117253</v>
       </c>
       <c r="T13">
-        <v>0.07046363279428197</v>
+        <v>0.1254639314117254</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H14">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I14">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J14">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.3542</v>
+        <v>16.790963</v>
       </c>
       <c r="N14">
-        <v>49.0626</v>
+        <v>50.372889</v>
       </c>
       <c r="O14">
-        <v>0.3510578481048182</v>
+        <v>0.3767143164125142</v>
       </c>
       <c r="P14">
-        <v>0.3510578481048181</v>
+        <v>0.3767143164125141</v>
       </c>
       <c r="Q14">
-        <v>1293.0608065048</v>
+        <v>1276.601010251051</v>
       </c>
       <c r="R14">
-        <v>11637.5472585432</v>
+        <v>11489.40909225946</v>
       </c>
       <c r="S14">
-        <v>0.02914400635208383</v>
+        <v>0.02506526488100563</v>
       </c>
       <c r="T14">
-        <v>0.02914400635208383</v>
+        <v>0.02506526488100563</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H15">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I15">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J15">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.433676999999999</v>
       </c>
       <c r="O15">
-        <v>0.0531902233295072</v>
+        <v>0.05559285173193915</v>
       </c>
       <c r="P15">
-        <v>0.05319022332950719</v>
+        <v>0.05559285173193915</v>
       </c>
       <c r="Q15">
-        <v>195.9169790617738</v>
+        <v>188.3918067133295</v>
       </c>
       <c r="R15">
-        <v>1763.252811555964</v>
+        <v>1695.526260419966</v>
       </c>
       <c r="S15">
-        <v>0.004415728675352295</v>
+        <v>0.003698955663329916</v>
       </c>
       <c r="T15">
-        <v>0.004415728675352293</v>
+        <v>0.003698955663329916</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H16">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I16">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J16">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.125502333333333</v>
+        <v>7.558934333333333</v>
       </c>
       <c r="N16">
-        <v>21.376507</v>
+        <v>22.676803</v>
       </c>
       <c r="O16">
-        <v>0.1529554191465104</v>
+        <v>0.1695887710662426</v>
       </c>
       <c r="P16">
-        <v>0.1529554191465104</v>
+        <v>0.1695887710662426</v>
       </c>
       <c r="Q16">
-        <v>563.3848059759472</v>
+        <v>574.6986165328748</v>
       </c>
       <c r="R16">
-        <v>5070.463253783524</v>
+        <v>5172.287548795874</v>
       </c>
       <c r="S16">
-        <v>0.01269800328138673</v>
+        <v>0.01128384901349182</v>
       </c>
       <c r="T16">
-        <v>0.01269800328138673</v>
+        <v>0.01128384901349182</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H17">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I17">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J17">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.62789</v>
+        <v>17.74434966666666</v>
       </c>
       <c r="N17">
-        <v>61.88367</v>
+        <v>53.23304899999999</v>
       </c>
       <c r="O17">
-        <v>0.4427965094191642</v>
+        <v>0.3981040607893041</v>
       </c>
       <c r="P17">
-        <v>0.4427965094191642</v>
+        <v>0.398104060789304</v>
       </c>
       <c r="Q17">
-        <v>1630.964283174493</v>
+        <v>1349.086095342749</v>
       </c>
       <c r="R17">
-        <v>14678.67854857044</v>
+        <v>12141.77485808474</v>
       </c>
       <c r="S17">
-        <v>0.03675993672512788</v>
+        <v>0.02648846433264035</v>
       </c>
       <c r="T17">
-        <v>0.03675993672512788</v>
+        <v>0.02648846433264035</v>
       </c>
     </row>
   </sheetData>
